--- a/Common/Excel/Entity.xlsx
+++ b/Common/Excel/Entity.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GitHub\UnityBaseFramework\Common\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53860D6C-0E7D-4DB8-8E6A-1BB9666B77DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>实体配置表</t>
+  </si>
+  <si>
+    <t>实体编号</t>
+  </si>
   <si>
     <t>备注</t>
   </si>
@@ -28,63 +28,82 @@
     <t>资源名称</t>
   </si>
   <si>
+    <t>资源Id</t>
+  </si>
+  <si>
+    <t>实体组名</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>AssetName</t>
   </si>
   <si>
+    <t>AssetId</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>实体配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XBot</t>
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="36">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="yy/m/d"/>
+    <numFmt numFmtId="184" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="185" formatCode="m/d"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="mmmmm"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="196" formatCode="#\ ??"/>
+    <numFmt numFmtId="197" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,39 +112,366 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -148,28 +494,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,19 +1060,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -448,101 +1081,101 @@
     <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
         <v>10001</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 

--- a/Common/Excel/Entity.xlsx
+++ b/Common/Excel/Entity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>实体配置表</t>
   </si>
@@ -34,6 +34,9 @@
     <t>实体组名</t>
   </si>
   <si>
+    <t>绑定逻辑脚本类型</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>GroupName</t>
   </si>
   <si>
+    <t>LogicType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -59,6 +65,18 @@
   </si>
   <si>
     <t>Player</t>
+  </si>
+  <si>
+    <t>XGame.EntityLogicPlayer</t>
+  </si>
+  <si>
+    <t>子弹模型</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>XGame.EntityLogicBullet</t>
   </si>
 </sst>
 </file>
@@ -68,42 +86,42 @@
   <numFmts count="36">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="181" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="185" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="yy/m/d"/>
+    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="189" formatCode="m/d"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="yy/m/d"/>
-    <numFmt numFmtId="184" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="m/d"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="mmmmm"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="196" formatCode="#\ ??"/>
-    <numFmt numFmtId="197" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,20 +139,142 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,135 +287,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,61 +303,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,115 +441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,9 +508,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,7 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +552,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,183 +597,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,9 +755,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,6 +817,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="43" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,22 +1090,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1114,9 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1106,69 +1132,104 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>10001</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>10002</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>100001</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>100001</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
